--- a/汽柴煤油2.0/data_input/PP-LPG.xlsx
+++ b/汽柴煤油2.0/data_input/PP-LPG.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2836"/>
+  <dimension ref="A1:D2838"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34265,6 +34265,34 @@
         <v>4175</v>
       </c>
     </row>
+    <row r="2837">
+      <c r="A2837" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B2837" t="n">
+        <v>2507</v>
+      </c>
+      <c r="C2837" t="n">
+        <v>6690</v>
+      </c>
+      <c r="D2837" t="n">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B2838" t="n">
+        <v>2501</v>
+      </c>
+      <c r="C2838" t="n">
+        <v>6686</v>
+      </c>
+      <c r="D2838" t="n">
+        <v>4185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
